--- a/Data/MLGT.xlsx
+++ b/Data/MLGT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Python/Superdepot Reporting/Test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinwolf/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B21F1DE-B1DF-0643-B454-33F4205BEE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD4D27C-47F2-BB4D-9273-8F6DC2E4CB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5387" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5389" uniqueCount="269">
   <si>
     <t>Table:</t>
   </si>
@@ -824,6 +824,9 @@
   </si>
   <si>
     <t>R-12-01-14</t>
+  </si>
+  <si>
+    <t>AATEST</t>
   </si>
 </sst>
 </file>
@@ -1667,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T2566"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C2566"/>
+    <sheetView tabSelected="1" topLeftCell="A1457" workbookViewId="0">
+      <selection activeCell="C1480" sqref="C1480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44511,6 +44514,9 @@
       <c r="I1479" t="s">
         <v>19</v>
       </c>
+      <c r="K1479" t="s">
+        <v>268</v>
+      </c>
       <c r="L1479">
         <v>2.52</v>
       </c>
@@ -44539,6 +44545,9 @@
       </c>
       <c r="I1480" t="s">
         <v>19</v>
+      </c>
+      <c r="K1480" t="s">
+        <v>268</v>
       </c>
       <c r="L1480">
         <v>50.16</v>
